--- a/DB/Usuarios.xlsx
+++ b/DB/Usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Servicios_Escolares\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140F93B1-4E8A-44DA-AB6D-9312A2A8665E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486713DA-F79E-4A8E-B8C0-15CB49514A18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A78FFD8C-16AF-423C-804C-5AE3EC49213D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$89</definedName>
     <definedName name="datosidalumno" localSheetId="0">Hoja1!$A$1:$H$89</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -1505,13 +1506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BE41E2-EC9C-41CE-ABEF-79478AB72DA6}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A42" sqref="A42:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1551,7 +1552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1863,7 +1864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>78</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
@@ -2175,7 +2176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>129</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>137</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>145</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>166</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>170</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>217</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>220</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>227</v>
       </c>
@@ -2981,7 +2982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>231</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>235</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>242</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>246</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>250</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>254</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>258</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>262</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>266</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>270</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>274</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>278</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>282</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>286</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>290</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>295</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>299</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>303</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>307</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>311</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>315</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>319</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>323</v>
       </c>
@@ -3605,7 +3606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>327</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>330</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>334</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>338</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>342</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>346</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>350</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>354</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>358</v>
       </c>
@@ -3840,6 +3841,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H89" xr:uid="{EFDFDAE4-7F2E-4A55-AE20-2CBF50D9C92B}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
